--- a/Projeto.xlsx
+++ b/Projeto.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juneo Silent\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A30762-AC5E-4384-A618-515C3A4CB237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A11A3E-D95D-4008-8D0D-304ACF3C26B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9370" yWindow="2350" windowWidth="28800" windowHeight="15370" xr2:uid="{B70E34C6-D2E2-4437-B338-6C6EFA9A34CB}"/>
+    <workbookView xWindow="10290" yWindow="2670" windowWidth="23640" windowHeight="15370" xr2:uid="{B70E34C6-D2E2-4437-B338-6C6EFA9A34CB}"/>
   </bookViews>
   <sheets>
     <sheet name="APP" sheetId="1" r:id="rId1"/>
-    <sheet name="TABELA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="aporte">APP!$C$15</definedName>
-    <definedName name="patrimonio">APP!$C$20</definedName>
-    <definedName name="qtd_anos">APP!$C$17</definedName>
-    <definedName name="qtd_mes">APP!$C$16</definedName>
+    <definedName name="aporte">APP!$C$12</definedName>
+    <definedName name="patrimonio">APP!$C$19</definedName>
+    <definedName name="qtd_anos">APP!$C$14</definedName>
+    <definedName name="qtd_mes">APP!$C$13</definedName>
     <definedName name="Quanto_vai_insvestir">APP!#REF!</definedName>
-    <definedName name="Rendimento_carteira">APP!$C$12</definedName>
-    <definedName name="taxa_mensal">APP!$C$18</definedName>
+    <definedName name="Rendimento_carteira">APP!#REF!</definedName>
+    <definedName name="taxa_mensal">APP!$C$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,57 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Por quantos anos?</t>
   </si>
   <si>
     <t>Dividendo</t>
-  </si>
-  <si>
-    <t>Confiugurações</t>
-  </si>
-  <si>
-    <t>Cenários</t>
-  </si>
-  <si>
-    <t>Conservador</t>
-  </si>
-  <si>
-    <t>Moderado</t>
-  </si>
-  <si>
-    <t>TIPO DE FII</t>
-  </si>
-  <si>
-    <t>PAPEL</t>
-  </si>
-  <si>
-    <t>TIJOLO</t>
-  </si>
-  <si>
-    <t>HÍBRIDOS</t>
-  </si>
-  <si>
-    <t>FOFs</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTO</t>
-  </si>
-  <si>
-    <t>HOTELARIAS</t>
-  </si>
-  <si>
-    <t>PERFIL</t>
-  </si>
-  <si>
-    <t>CHAVE</t>
-  </si>
-  <si>
-    <t>Agressivo</t>
-  </si>
-  <si>
-    <t>Valor da Porcentagem de rendimento</t>
   </si>
   <si>
     <t>Por quantos meses?</t>
@@ -106,22 +60,31 @@
     <t>Quanto vai insvestir</t>
   </si>
   <si>
-    <t>Investimeno em  2 anos?</t>
+    <t>Dividendos mensais:</t>
   </si>
   <si>
-    <t>Investimeno em 5 anos?</t>
+    <t>Dividendos anuais:</t>
   </si>
   <si>
-    <t>Investimeno em 10 anos?</t>
+    <t>Resultados</t>
   </si>
   <si>
-    <t>Investimeno em 30 anos?</t>
+    <t>Previsões</t>
   </si>
   <si>
-    <t>Investimento</t>
+    <t>Investimeno em  2 anos</t>
   </si>
   <si>
-    <t>Dividendos mensais:</t>
+    <t>Investimeno em 5 anos</t>
+  </si>
+  <si>
+    <t>Investimeno em 10 anos</t>
+  </si>
+  <si>
+    <t>Investimeno em 30 anos</t>
+  </si>
+  <si>
+    <t>Informações de Investimento</t>
   </si>
 </sst>
 </file>
@@ -133,7 +96,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,22 +141,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="18"/>
-      <color theme="0"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -226,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -317,19 +265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -338,19 +273,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -410,36 +332,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -495,21 +387,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -551,124 +428,142 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="25"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="23"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="4"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="25"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="14"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -694,14 +589,1833 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Previsões</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2059840332458443"/>
+          <c:y val="0.17634259259259263"/>
+          <c:w val="0.7634604111986002"/>
+          <c:h val="0.56412766112569257"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>APP!$B$26:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Investimeno em  2 anos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Investimeno em 5 anos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Investimeno em 10 anos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Investimeno em 10 anos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Investimeno em 30 anos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>APP!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73E2-4B70-A7A9-007B38041A6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>APP!$B$26:$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Investimeno em  2 anos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Investimeno em 5 anos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Investimeno em 10 anos</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Investimeno em 10 anos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Investimeno em 30 anos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>APP!$D$26:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73E2-4B70-A7A9-007B38041A6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="387772400"/>
+        <c:axId val="387766160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387772400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387766160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387766160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;#,##0.00_);[Red]\(&quot;R$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387772400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Resultados</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>APP!$B$18:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Patrimonio acumulado mensal:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Patrimonio acumulado anual:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Valor total investido por meses</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Valor total investido por meses</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dividendos mensais:</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dividendos anuais:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>APP!$C$18:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;R$&quot;\ #,##0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;R$&quot;\ #,##0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BADF-42CB-B289-F4ED231E82AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="387758000"/>
+        <c:axId val="387762320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387758000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387762320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387762320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;#,##0.00_);[Red]\(&quot;R$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387758000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>116394</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>243394</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>32835</xdr:rowOff>
+      <xdr:rowOff>1085</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7427406" cy="718466"/>
     <xdr:sp macro="" textlink="">
@@ -717,7 +2431,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="116394" y="769435"/>
+          <a:off x="852994" y="737685"/>
           <a:ext cx="7427406" cy="718466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -818,6 +2532,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16383</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5253AA5D-5E38-A0A6-B09C-F46D8706B5EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EF3E02-A85C-75F4-6C8F-BBC29844AAA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1118,10 +2904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7464FCE3-EAE5-4669-91D5-1B4206E6D865}">
-  <dimension ref="A10:J53"/>
+  <dimension ref="A10:XFD60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1134,285 +2920,306 @@
     <col min="6" max="6" width="12.36328125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" hidden="1"/>
+    <col min="11" max="16383" width="8.7265625" hidden="1"/>
+    <col min="16384" max="16384" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="1:10" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:10" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="C13" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="21.5" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
+      <c r="C18" s="33">
+        <f>FV(taxa_mensal,qtd_mes,aporte*-1)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1.0789999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="26">
-        <f>FV(taxa_mensal,qtd_mes,aporte*-1)</f>
-        <v>10.053950000000079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="38">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
-        <v>1216.4210626508609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="28">
-        <f>patrimonio*Rendimento_carteira</f>
-        <v>12.164210626508609</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="29">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="38">
         <f>qtd_mes*aporte</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="39">
         <f>qtd_anos*aporte</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="35"/>
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="38">
+        <f>aporte*taxa_mensal</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="40">
+        <f>aporte*taxa_mensal*12</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="31"/>
-      <c r="B26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="12">
-        <f>FV($C$18,$A28*12,$C$15*-1)</f>
-        <v>136.13813648822608</v>
-      </c>
-      <c r="D26" s="13">
-        <f>C26*Rendimento_carteira</f>
-        <v>1.3613813648822608</v>
-      </c>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="14">
-        <f>FV($C$18,$A29*12,$C$15*-1)</f>
-        <v>418.88456999243823</v>
-      </c>
-      <c r="D27" s="15">
-        <f>C27*Rendimento_carteira</f>
-        <v>4.1888456999243822</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="34">
+        <f>FV($C$15,$A28*12,$C$12*-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="35">
+        <f>C26*taxa_mensal</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="36">
+        <f>FV($C$15,$A29*12,$C$12*-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="35">
+        <f>C27*taxa_mensal</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="14">
-        <f>FV($C$18,$A30*12,$C$15*-1)</f>
-        <v>1216.4210626508609</v>
-      </c>
-      <c r="D28" s="15">
-        <f>C28*Rendimento_carteira</f>
-        <v>12.164210626508609</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="36">
+        <f>FV($C$15,$A30*12,$C$12*-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="35">
+        <f>C28*taxa_mensal</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="14">
-        <f>FV($C$18,$A31*12,$C$15*-1)</f>
-        <v>5625.992000485403</v>
-      </c>
-      <c r="D29" s="15">
-        <f>C29*Rendimento_carteira</f>
-        <v>56.259920004854031</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="36">
+        <f>FV($C$15,$A31*12,$C$12*-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="35">
+        <f>C29*taxa_mensal</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>10</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="16">
-        <f>FV($C$18,$A32*12,$C$15*-1)</f>
-        <v>21610.848275023571</v>
-      </c>
-      <c r="D30" s="17">
-        <f>C30*Rendimento_carteira</f>
-        <v>216.10848275023571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="37">
+        <f>FV($C$15,$A32*12,$C$12*-1)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <f>C30*taxa_mensal</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="36"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="27"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="40"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="36"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="27"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="36"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="27"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="41"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="27"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="27"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="27"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="27"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="27"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="43"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="43"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34" xr:uid="{C608615A-4B9C-4EB9-96E5-EF1F4B11E572}">
       <formula1>"Conservador,Moderado,Agressivo"</formula1>
@@ -1422,305 +3229,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F00AF78-54A0-4CB3-80E3-5853BAE81264}">
-  <dimension ref="A2:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="str">
-        <f>$B$3&amp;"-"&amp;C3</f>
-        <v>Conservador-PAPEL</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="24">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A8" si="0">$B$3&amp;"-"&amp;C4</f>
-        <v>Conservador-TIJOLO</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="str">
-        <f t="shared" si="0"/>
-        <v>Conservador-HÍBRIDOS</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="str">
-        <f t="shared" si="0"/>
-        <v>Conservador-FOFs</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="str">
-        <f t="shared" si="0"/>
-        <v>Conservador-DESENVOLVIMENTO</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="str">
-        <f t="shared" si="0"/>
-        <v>Conservador-HOTELARIAS</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="str">
-        <f>$B$9&amp;"-"&amp;C9</f>
-        <v>Moderado-PAPEL</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="str">
-        <f t="shared" ref="A10:A14" si="1">$B$9&amp;"-"&amp;C10</f>
-        <v>Moderado-TIJOLO</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
-        <f t="shared" si="1"/>
-        <v>Moderado-HÍBRIDOS</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v>Moderado-FOFs</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v>Moderado-DESENVOLVIMENTO</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <f t="shared" si="1"/>
-        <v>Moderado-HOTELARIAS</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="str">
-        <f>$B$15&amp;"-"&amp;C15</f>
-        <v>Agressivo-PAPEL</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="str">
-        <f t="shared" ref="A16:A20" si="2">$B$15&amp;"-"&amp;C16</f>
-        <v>Agressivo-TIJOLO</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="str">
-        <f t="shared" si="2"/>
-        <v>Agressivo-HÍBRIDOS</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="str">
-        <f t="shared" si="2"/>
-        <v>Agressivo-FOFs</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="str">
-        <f t="shared" si="2"/>
-        <v>Agressivo-DESENVOLVIMENTO</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="str">
-        <f t="shared" si="2"/>
-        <v>Agressivo-HOTELARIAS</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>